--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED989499-96C0-6540-A704-370581CAE747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DD2906-C9A6-1649-9125-F00BCD835431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="18700" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4F698-7A31-1E41-ABE8-57A9B373FDB7}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,7 +476,7 @@
         <v>33</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D21" si="0">B4/C4*100</f>
+        <f t="shared" ref="D4:D23" si="0">B4/C4*100</f>
         <v>6.0606060606060606</v>
       </c>
     </row>
@@ -733,6 +733,30 @@
       <c r="D21">
         <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DD2906-C9A6-1649-9125-F00BCD835431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49219E76-A081-7E47-9C76-8A2E32932B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="18700" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$3:$D$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -101,6 +105,1093 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>14.814814814814813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.225806451612903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8461538461538463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0909090909090917</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.285714285714285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADC3-8949-8562-D97186189ABD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="951381071"/>
+        <c:axId val="951741791"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="951381071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="21"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951741791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="951741791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage Missed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="951381071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B45ED2-20DE-0948-9831-07E0C7DE3CBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,7 +1494,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D3" activeCellId="1" sqref="A3:A23 D3:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,9 +1845,15 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="D23" t="e">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>14.285714285714285</v>
       </c>
     </row>
   </sheetData>
@@ -765,5 +1862,6 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49219E76-A081-7E47-9C76-8A2E32932B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43391522-26FC-3448-92CB-073D5E0F5CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="18700" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
@@ -65,12 +65,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,11 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,7 +1501,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" activeCellId="1" sqref="A3:A23 D3:D23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1570,6 +1577,8 @@
         <f t="shared" ref="D4:D23" si="0">B4/C4*100</f>
         <v>6.0606060606060606</v>
       </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1600,6 +1609,8 @@
         <f t="shared" si="0"/>
         <v>3.225806451612903</v>
       </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1630,6 +1641,8 @@
         <f t="shared" si="0"/>
         <v>3.8461538461538463</v>
       </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1660,6 +1673,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1690,6 +1705,8 @@
         <f t="shared" si="0"/>
         <v>9.0909090909090917</v>
       </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1720,6 +1737,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1750,8 +1769,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1766,7 +1787,7 @@
         <v>10.76923076923077</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1780,8 +1801,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1796,7 +1819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1810,8 +1833,10 @@
         <f t="shared" si="0"/>
         <v>14.285714285714285</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1826,7 +1851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1840,8 +1865,10 @@
         <f t="shared" si="0"/>
         <v>3.5714285714285712</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>

--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43391522-26FC-3448-92CB-073D5E0F5CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7CBFA2-0217-7A45-ADFE-89CA1B47B6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="18700" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$3:$A$23</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$3:$D$23</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -93,10 +89,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1501,7 +1497,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,16 +1507,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" t="s">
         <v>3</v>
       </c>
@@ -1562,6 +1558,8 @@
         <f>B3/C3*100</f>
         <v>14.814814814814813</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1577,8 +1575,6 @@
         <f t="shared" ref="D4:D23" si="0">B4/C4*100</f>
         <v>6.0606060606060606</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1594,6 +1590,8 @@
         <f t="shared" si="0"/>
         <v>7.1428571428571423</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1609,8 +1607,6 @@
         <f t="shared" si="0"/>
         <v>3.225806451612903</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1626,6 +1622,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1641,8 +1639,6 @@
         <f t="shared" si="0"/>
         <v>3.8461538461538463</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1658,6 +1654,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1673,8 +1671,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1690,6 +1686,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1705,8 +1703,6 @@
         <f t="shared" si="0"/>
         <v>9.0909090909090917</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1722,6 +1718,8 @@
         <f t="shared" si="0"/>
         <v>4.5454545454545459</v>
       </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1737,8 +1735,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1754,6 +1750,8 @@
         <f t="shared" si="0"/>
         <v>7.1428571428571423</v>
       </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1769,8 +1767,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1786,6 +1782,8 @@
         <f t="shared" si="0"/>
         <v>10.76923076923077</v>
       </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1801,8 +1799,6 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1818,6 +1814,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1833,8 +1831,6 @@
         <f t="shared" si="0"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1850,6 +1846,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -1865,8 +1863,6 @@
         <f t="shared" si="0"/>
         <v>3.5714285714285712</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1882,6 +1878,8 @@
         <f t="shared" si="0"/>
         <v>14.285714285714285</v>
       </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7CBFA2-0217-7A45-ADFE-89CA1B47B6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6F96F1-47D6-944C-908C-C48B1520FA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="18700" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
@@ -1160,16 +1160,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:F23"/>
+      <selection activeCell="G23" activeCellId="9" sqref="G5 G7 G9 G11 G13 G15 G17 G19 G21 G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1560,6 +1560,10 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="1" t="e">
+        <f>E3/F3*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1575,6 +1579,16 @@
         <f t="shared" ref="D4:D23" si="0">B4/C4*100</f>
         <v>6.0606060606060606</v>
       </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <f>E4/F4*100</f>
+        <v>6.8181818181818175</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1592,6 +1606,10 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="1" t="e">
+        <f t="shared" ref="G5:G23" si="1">E5/F5*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1607,6 +1625,10 @@
         <f t="shared" si="0"/>
         <v>3.225806451612903</v>
       </c>
+      <c r="G6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1624,6 +1646,10 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1639,6 +1665,10 @@
         <f t="shared" si="0"/>
         <v>3.8461538461538463</v>
       </c>
+      <c r="G8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1656,6 +1686,10 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+      <c r="G9" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1671,6 +1705,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1688,6 +1726,10 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="G11" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1703,6 +1745,10 @@
         <f t="shared" si="0"/>
         <v>9.0909090909090917</v>
       </c>
+      <c r="G12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1720,6 +1766,10 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1735,6 +1785,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1752,6 +1806,10 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
+      <c r="G15" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1767,8 +1825,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1784,8 +1846,12 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1799,8 +1865,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1816,8 +1886,12 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1831,8 +1905,12 @@
         <f t="shared" si="0"/>
         <v>14.285714285714285</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1848,8 +1926,12 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1863,8 +1945,12 @@
         <f t="shared" si="0"/>
         <v>3.5714285714285712</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1880,6 +1966,10 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
+      <c r="G23" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6F96F1-47D6-944C-908C-C48B1520FA69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFA3E36-D94C-9543-B269-C12EAC17D6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="18700" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" activeCellId="9" sqref="G5 G7 G9 G11 G13 G15 G17 G19 G21 G23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1625,9 +1625,15 @@
         <f t="shared" si="0"/>
         <v>3.225806451612903</v>
       </c>
-      <c r="G6" t="e">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFA3E36-D94C-9543-B269-C12EAC17D6D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B95A60-99D4-664C-85CE-CC0253FEB92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="18700" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G22" activeCellId="19" sqref="A4 G4 G6 G8 A6 A8 A10 A12 A14 A16 A18 A20 A22 G10 G12 G14 G16 G18 G20 G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1671,9 +1671,15 @@
         <f t="shared" si="0"/>
         <v>3.8461538461538463</v>
       </c>
-      <c r="G8" t="e">
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>57</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.7719298245614024</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">

--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B95A60-99D4-664C-85CE-CC0253FEB92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF8F3A3-2700-DC46-870E-3E8402E267CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="18700" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
+    <workbookView xWindow="28360" yWindow="-900" windowWidth="18700" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" activeCellId="19" sqref="A4 G4 G6 G8 A6 A8 A10 A12 A14 A16 A18 A20 A22 G10 G12 G14 G16 G18 G20 G22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1717,9 +1717,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" t="e">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>52</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.9230769230769231</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">

--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF8F3A3-2700-DC46-870E-3E8402E267CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF68D6E3-3E3C-2946-9E9C-E805493C86E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28360" yWindow="-900" windowWidth="18700" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Missed</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Every Day</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -1494,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4F698-7A31-1E41-ABE8-57A9B373FDB7}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1763,9 +1766,15 @@
         <f t="shared" si="0"/>
         <v>9.0909090909090917</v>
       </c>
-      <c r="G12" t="e">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>47</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>10.638297872340425</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1803,9 +1812,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" t="e">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>49</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.0816326530612246</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1987,6 +2002,23 @@
       <c r="G23" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <f>AVERAGE(B3:B23)</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="C25">
+        <f>AVERAGE(C3:C23)</f>
+        <v>26.285714285714285</v>
+      </c>
+      <c r="D25">
+        <f>B25/C25*100</f>
+        <v>5.4347826086956523</v>
       </c>
     </row>
   </sheetData>

--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF68D6E3-3E3C-2946-9E9C-E805493C86E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C7875C-F399-8347-8137-9817B3C73C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1858,9 +1858,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" t="e">
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>55</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.0909090909090917</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">

--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C7875C-F399-8347-8137-9817B3C73C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905BDD1-6BCE-C041-B739-CDF1E2A177D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,9 +1904,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" t="e">
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>44</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>15.909090909090908</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">

--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905BDD1-6BCE-C041-B739-CDF1E2A177D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8D305-B440-8C4B-9F19-748DB85E3DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Missed</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Percentage Missed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Alternating Days</t>
@@ -1163,16 +1160,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1497,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B4F698-7A31-1E41-ABE8-57A9B373FDB7}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1509,24 +1506,23 @@
     <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1546,8 +1542,14 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1567,8 +1569,15 @@
         <f>E3/F3*100</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>G4</f>
+        <v>6.8181818181818175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1592,8 +1601,16 @@
         <f>E4/F4*100</f>
         <v>6.8181818181818175</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <f>H3+2</f>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f>G6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1613,8 +1630,16 @@
         <f t="shared" ref="G5:G23" si="1">E5/F5*100</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f t="shared" ref="H5:H13" si="2">H4+2</f>
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f>G8</f>
+        <v>8.7719298245614024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1638,8 +1663,16 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <f>G10</f>
+        <v>1.9230769230769231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1659,8 +1692,16 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <f>G12</f>
+        <v>10.638297872340425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1684,8 +1725,16 @@
         <f t="shared" si="1"/>
         <v>8.7719298245614024</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <f>G14</f>
+        <v>4.0816326530612246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1705,8 +1754,16 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <f>G16</f>
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1730,8 +1787,16 @@
         <f t="shared" si="1"/>
         <v>1.9230769230769231</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <f>G18</f>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1751,8 +1816,16 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <f>G20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1776,8 +1849,16 @@
         <f t="shared" si="1"/>
         <v>10.638297872340425</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I12" t="e">
+        <f>G22</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1798,7 +1879,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1823,7 +1904,7 @@
         <v>4.0816326530612246</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1844,7 +1925,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1950,9 +2031,15 @@
         <f t="shared" si="0"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="G20" t="e">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>37</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2016,9 +2103,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <f>AVERAGE(B3:B23)</f>
@@ -2036,7 +2132,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/knowledge/srs/alternating_days.xlsx
+++ b/knowledge/srs/alternating_days.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EthanMorse/Documents/personal/website/ethanmorse.github.io/knowledge/srs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F8D305-B440-8C4B-9F19-748DB85E3DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A196AA55-C918-6744-808C-6CA6945E061D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{8C115A99-B9CE-6445-A2D2-73F1E7CF0AD3}"/>
   </bookViews>
@@ -133,6 +133,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Every Day</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -305,6 +308,121 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ADC3-8949-8562-D97186189ABD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Alternating</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.8181818181818175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7719298245614024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9230769230769231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.638297872340425</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0816326530612246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0909090909090917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.636363636363635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-599F-FF4C-B6CF-75DE5EBF60EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -563,6 +681,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1168,8 +1317,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1497,7 +1646,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1853,9 +2002,9 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I12" t="e">
+      <c r="I12">
         <f>G22</f>
-        <v>#DIV/0!</v>
+        <v>13.636363636363635</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1950,7 +2099,7 @@
         <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1971,7 +2120,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1996,7 +2145,7 @@
         <v>15.909090909090908</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2017,7 +2166,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2042,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2063,7 +2212,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2077,12 +2226,18 @@
         <f t="shared" si="0"/>
         <v>3.5714285714285712</v>
       </c>
-      <c r="G22" t="e">
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>44</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13.636363636363635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2103,7 +2258,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2112,7 +2267,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2127,6 +2282,10 @@
       <c r="D25">
         <f>B25/C25*100</f>
         <v>5.4347826086956523</v>
+      </c>
+      <c r="I25">
+        <f>AVERAGE(I3:I12)</f>
+        <v>7.6869482727585439</v>
       </c>
     </row>
   </sheetData>
